--- a/Output/Overview.xlsx
+++ b/Output/Overview.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Nga's Folder\Bootcamp\ELT Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Nga's Folder\Bootcamp\Week 11 - ETL\Project-2-ETL\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCF1F6FF-BAB8-4DD6-9C2B-AB3EE476061E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFEA9B05-4BB8-4998-BE36-5F9225918AE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{55436849-F3CB-4537-B02B-FB69A483C639}"/>
+    <workbookView xWindow="-27615" yWindow="1005" windowWidth="21600" windowHeight="11385" xr2:uid="{55436849-F3CB-4537-B02B-FB69A483C639}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -806,6 +806,51 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -853,51 +898,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1216,10 +1216,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:H171"/>
+  <dimension ref="B2:H180"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="R38" sqref="R38"/>
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1262,14 +1262,14 @@
       <c r="B4" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="55" t="s">
+      <c r="D4" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="56"/>
-      <c r="G4" s="56" t="s">
+      <c r="E4" s="40"/>
+      <c r="G4" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="56"/>
+      <c r="H4" s="40"/>
     </row>
     <row r="5" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="13"/>
@@ -1281,14 +1281,14 @@
       <c r="B6" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="57" t="s">
+      <c r="D6" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="57"/>
-      <c r="G6" s="61" t="s">
+      <c r="E6" s="41"/>
+      <c r="G6" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="62"/>
+      <c r="H6" s="46"/>
     </row>
     <row r="7" spans="2:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
@@ -1584,7 +1584,7 @@
       <c r="E32" s="5"/>
       <c r="G32" s="8"/>
     </row>
-    <row r="33" spans="2:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>57</v>
       </c>
@@ -1596,7 +1596,7 @@
       </c>
       <c r="G33" s="8"/>
     </row>
-    <row r="34" spans="2:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>58</v>
       </c>
@@ -1606,7 +1606,7 @@
       <c r="E34" s="5"/>
       <c r="G34" s="8"/>
     </row>
-    <row r="35" spans="2:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>59</v>
       </c>
@@ -1618,7 +1618,7 @@
       </c>
       <c r="G35" s="8"/>
     </row>
-    <row r="36" spans="2:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
         <v>60</v>
       </c>
@@ -1628,7 +1628,7 @@
       <c r="E36" s="5"/>
       <c r="G36" s="8"/>
     </row>
-    <row r="37" spans="2:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
         <v>61</v>
       </c>
@@ -1640,7 +1640,7 @@
       </c>
       <c r="G37" s="8"/>
     </row>
-    <row r="38" spans="2:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
         <v>62</v>
       </c>
@@ -1650,7 +1650,7 @@
       <c r="E38" s="5"/>
       <c r="G38" s="8"/>
     </row>
-    <row r="39" spans="2:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
         <v>63</v>
       </c>
@@ -1660,7 +1660,7 @@
       <c r="E39" s="5"/>
       <c r="G39" s="8"/>
     </row>
-    <row r="40" spans="2:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
         <v>64</v>
       </c>
@@ -1670,7 +1670,7 @@
       <c r="E40" s="5"/>
       <c r="G40" s="8"/>
     </row>
-    <row r="41" spans="2:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
         <v>65</v>
       </c>
@@ -1680,7 +1680,7 @@
       <c r="E41" s="5"/>
       <c r="G41" s="8"/>
     </row>
-    <row r="42" spans="2:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
         <v>66</v>
       </c>
@@ -1690,7 +1690,7 @@
       <c r="E42" s="5"/>
       <c r="G42" s="8"/>
     </row>
-    <row r="43" spans="2:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B43" s="13"/>
       <c r="D43" s="5" t="s">
         <v>104</v>
@@ -1700,268 +1700,221 @@
       </c>
       <c r="G43" s="8"/>
     </row>
-    <row r="44" spans="2:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B44" s="13"/>
       <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
       <c r="G44" s="8"/>
     </row>
-    <row r="45" spans="2:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="10" t="s">
+    <row r="45" spans="2:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="13"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="G45" s="8"/>
+    </row>
+    <row r="46" spans="2:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="13"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="G46" s="8"/>
+    </row>
+    <row r="47" spans="2:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="13"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="G47" s="8"/>
+    </row>
+    <row r="48" spans="2:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="13"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="G48" s="8"/>
+    </row>
+    <row r="49" spans="2:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="13"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="G49" s="8"/>
+    </row>
+    <row r="50" spans="2:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="13"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="G50" s="8"/>
+    </row>
+    <row r="51" spans="2:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="13"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="G51" s="8"/>
+    </row>
+    <row r="52" spans="2:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="13"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="G52" s="8"/>
+    </row>
+    <row r="53" spans="2:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="13"/>
+      <c r="D53" s="8"/>
+      <c r="G53" s="8"/>
+    </row>
+    <row r="54" spans="2:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C45" s="11"/>
-      <c r="D45" s="10" t="s">
+      <c r="C54" s="11"/>
+      <c r="D54" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E45" s="10"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="10" t="s">
+      <c r="E54" s="10"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="2:8" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="10" t="s">
+    <row r="55" spans="2:8" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C46" s="11"/>
-      <c r="D46" s="10" t="s">
+      <c r="C55" s="11"/>
+      <c r="D55" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E46" s="12"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="10" t="s">
+      <c r="E55" s="12"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B47" s="25" t="s">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B56" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D47" s="58" t="s">
+      <c r="D56" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="E47" s="58"/>
-      <c r="G47" s="51" t="s">
+      <c r="E56" s="42"/>
+      <c r="G56" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="H47" s="52"/>
-    </row>
-    <row r="48" spans="2:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="13"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="16"/>
-      <c r="G48" s="8"/>
-    </row>
-    <row r="49" spans="2:8" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="27" t="s">
+      <c r="H56" s="36"/>
+    </row>
+    <row r="57" spans="2:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="13"/>
+      <c r="D57" s="16"/>
+      <c r="E57" s="16"/>
+      <c r="G57" s="8"/>
+    </row>
+    <row r="58" spans="2:8" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C49" s="4"/>
-      <c r="D49" s="36" t="s">
+      <c r="C58" s="4"/>
+      <c r="D58" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="E49" s="36"/>
-      <c r="G49" s="37" t="s">
+      <c r="E58" s="51"/>
+      <c r="G58" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="H49" s="38"/>
-    </row>
-    <row r="50" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="1" t="s">
+      <c r="H58" s="53"/>
+    </row>
+    <row r="59" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D50" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E50" s="5"/>
-      <c r="G50" s="5" t="s">
+      <c r="D59" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E59" s="5"/>
+      <c r="G59" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H50" s="6" t="s">
+      <c r="H59" s="6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="51" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="1" t="s">
+    <row r="60" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D51" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E51" s="5"/>
-      <c r="G51" s="5" t="s">
+      <c r="D60" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E60" s="5"/>
+      <c r="G60" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H51" s="6" t="s">
+      <c r="H60" s="6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="52" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="1" t="s">
+    <row r="61" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D52" s="5" t="s">
+      <c r="D61" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="E52" s="5" t="s">
+      <c r="E61" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="G52" s="5" t="s">
+      <c r="G61" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H52" s="6" t="s">
+      <c r="H61" s="6" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="53" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="1" t="s">
+    <row r="62" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D53" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E53" s="5"/>
-      <c r="G53" s="5" t="s">
+      <c r="D62" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E62" s="5"/>
+      <c r="G62" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H53" s="6" t="s">
+      <c r="H62" s="6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="54" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="1" t="s">
+    <row r="63" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D54" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E54" s="5"/>
-      <c r="G54" s="5" t="s">
+      <c r="D63" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E63" s="5"/>
+      <c r="G63" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H54" s="6" t="s">
+      <c r="H63" s="6" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="55" spans="2:8" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E55" s="5"/>
-      <c r="G55" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H55" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="56" spans="2:8" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E56" s="5"/>
-      <c r="G56" s="8"/>
-      <c r="H56" s="9"/>
-    </row>
-    <row r="57" spans="2:8" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E57" s="5"/>
-      <c r="G57" s="8"/>
-      <c r="H57" s="9"/>
-    </row>
-    <row r="58" spans="2:8" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E58" s="5"/>
-      <c r="G58" s="8"/>
-      <c r="H58" s="9"/>
-    </row>
-    <row r="59" spans="2:8" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E59" s="5"/>
-      <c r="G59" s="8"/>
-      <c r="H59" s="9"/>
-    </row>
-    <row r="60" spans="2:8" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="G60" s="8"/>
-      <c r="H60" s="9"/>
-    </row>
-    <row r="61" spans="2:8" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E61" s="5"/>
-      <c r="G61" s="8"/>
-      <c r="H61" s="9"/>
-    </row>
-    <row r="62" spans="2:8" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E62" s="5"/>
-      <c r="G62" s="8"/>
-      <c r="H62" s="9"/>
-    </row>
-    <row r="63" spans="2:8" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E63" s="5"/>
-      <c r="G63" s="8"/>
-      <c r="H63" s="9"/>
     </row>
     <row r="64" spans="2:8" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="1" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="D64" s="5" t="s">
         <v>67</v>
       </c>
       <c r="E64" s="5"/>
-      <c r="G64" s="8"/>
-      <c r="H64" s="9"/>
+      <c r="G64" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H64" s="6" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="65" spans="2:8" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="1" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D65" s="5" t="s">
         <v>67</v>
@@ -1972,7 +1925,7 @@
     </row>
     <row r="66" spans="2:8" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="1" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="D66" s="5" t="s">
         <v>67</v>
@@ -1983,7 +1936,7 @@
     </row>
     <row r="67" spans="2:8" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="D67" s="5" t="s">
         <v>67</v>
@@ -1994,7 +1947,7 @@
     </row>
     <row r="68" spans="2:8" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="D68" s="5" t="s">
         <v>67</v>
@@ -2005,18 +1958,20 @@
     </row>
     <row r="69" spans="2:8" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="1" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E69" s="5"/>
+        <v>103</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>105</v>
+      </c>
       <c r="G69" s="8"/>
       <c r="H69" s="9"/>
     </row>
     <row r="70" spans="2:8" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="1" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="D70" s="5" t="s">
         <v>67</v>
@@ -2027,7 +1982,7 @@
     </row>
     <row r="71" spans="2:8" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D71" s="5" t="s">
         <v>67</v>
@@ -2038,7 +1993,7 @@
     </row>
     <row r="72" spans="2:8" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="1" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="D72" s="5" t="s">
         <v>67</v>
@@ -2049,7 +2004,7 @@
     </row>
     <row r="73" spans="2:8" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="1" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="D73" s="5" t="s">
         <v>67</v>
@@ -2060,7 +2015,7 @@
     </row>
     <row r="74" spans="2:8" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="1" t="s">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="D74" s="5" t="s">
         <v>67</v>
@@ -2071,7 +2026,7 @@
     </row>
     <row r="75" spans="2:8" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="1" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="D75" s="5" t="s">
         <v>67</v>
@@ -2082,7 +2037,7 @@
     </row>
     <row r="76" spans="2:8" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="1" t="s">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="D76" s="5" t="s">
         <v>67</v>
@@ -2093,7 +2048,7 @@
     </row>
     <row r="77" spans="2:8" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="1" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="D77" s="5" t="s">
         <v>67</v>
@@ -2104,7 +2059,7 @@
     </row>
     <row r="78" spans="2:8" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="1" t="s">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="D78" s="5" t="s">
         <v>67</v>
@@ -2115,7 +2070,7 @@
     </row>
     <row r="79" spans="2:8" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="1" t="s">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="D79" s="5" t="s">
         <v>67</v>
@@ -2126,7 +2081,7 @@
     </row>
     <row r="80" spans="2:8" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="1" t="s">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="D80" s="5" t="s">
         <v>67</v>
@@ -2137,7 +2092,7 @@
     </row>
     <row r="81" spans="2:8" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="1" t="s">
-        <v>55</v>
+        <v>97</v>
       </c>
       <c r="D81" s="5" t="s">
         <v>67</v>
@@ -2148,7 +2103,7 @@
     </row>
     <row r="82" spans="2:8" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="D82" s="5" t="s">
         <v>67</v>
@@ -2159,7 +2114,7 @@
     </row>
     <row r="83" spans="2:8" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="1" t="s">
-        <v>98</v>
+        <v>48</v>
       </c>
       <c r="D83" s="5" t="s">
         <v>67</v>
@@ -2170,7 +2125,7 @@
     </row>
     <row r="84" spans="2:8" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="1" t="s">
-        <v>99</v>
+        <v>49</v>
       </c>
       <c r="D84" s="5" t="s">
         <v>67</v>
@@ -2181,20 +2136,18 @@
     </row>
     <row r="85" spans="2:8" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="E85" s="5" t="s">
-        <v>24</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="E85" s="5"/>
       <c r="G85" s="8"/>
       <c r="H85" s="9"/>
     </row>
     <row r="86" spans="2:8" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D86" s="5" t="s">
         <v>67</v>
@@ -2205,10 +2158,10 @@
     </row>
     <row r="87" spans="2:8" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E87" s="5"/>
       <c r="G87" s="8"/>
@@ -2216,7 +2169,7 @@
     </row>
     <row r="88" spans="2:8" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D88" s="5" t="s">
         <v>67</v>
@@ -2227,20 +2180,18 @@
     </row>
     <row r="89" spans="2:8" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E89" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="E89" s="5"/>
       <c r="G89" s="8"/>
       <c r="H89" s="9"/>
     </row>
     <row r="90" spans="2:8" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D90" s="5" t="s">
         <v>67</v>
@@ -2251,7 +2202,7 @@
     </row>
     <row r="91" spans="2:8" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D91" s="5" t="s">
         <v>67</v>
@@ -2262,7 +2213,7 @@
     </row>
     <row r="92" spans="2:8" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="1" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="D92" s="5" t="s">
         <v>67</v>
@@ -2273,7 +2224,7 @@
     </row>
     <row r="93" spans="2:8" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="1" t="s">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="D93" s="5" t="s">
         <v>67</v>
@@ -2284,18 +2235,20 @@
     </row>
     <row r="94" spans="2:8" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="1" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E94" s="5"/>
+        <v>103</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="G94" s="8"/>
       <c r="H94" s="9"/>
     </row>
     <row r="95" spans="2:8" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="1" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="D95" s="5" t="s">
         <v>67</v>
@@ -2306,255 +2259,264 @@
     </row>
     <row r="96" spans="2:8" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="1" t="s">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E96" s="5"/>
       <c r="G96" s="8"/>
       <c r="H96" s="9"/>
     </row>
     <row r="97" spans="2:8" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="11"/>
+      <c r="B97" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="D97" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="E97" s="5" t="s">
-        <v>22</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="E97" s="5"/>
       <c r="G97" s="8"/>
       <c r="H97" s="9"/>
     </row>
     <row r="98" spans="2:8" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="11"/>
-      <c r="D98" s="8"/>
-      <c r="E98" s="9"/>
+      <c r="B98" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="G98" s="8"/>
       <c r="H98" s="9"/>
     </row>
     <row r="99" spans="2:8" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="11"/>
-      <c r="D99" s="8"/>
-      <c r="E99" s="9"/>
+      <c r="B99" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E99" s="5"/>
       <c r="G99" s="8"/>
       <c r="H99" s="9"/>
     </row>
-    <row r="100" spans="2:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="10" t="s">
+    <row r="100" spans="2:8" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B100" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E100" s="5"/>
+      <c r="G100" s="8"/>
+      <c r="H100" s="9"/>
+    </row>
+    <row r="101" spans="2:8" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B101" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E101" s="5"/>
+      <c r="G101" s="8"/>
+      <c r="H101" s="9"/>
+    </row>
+    <row r="102" spans="2:8" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B102" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E102" s="5"/>
+      <c r="G102" s="8"/>
+      <c r="H102" s="9"/>
+    </row>
+    <row r="103" spans="2:8" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B103" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E103" s="5"/>
+      <c r="G103" s="8"/>
+      <c r="H103" s="9"/>
+    </row>
+    <row r="104" spans="2:8" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B104" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E104" s="5"/>
+      <c r="G104" s="8"/>
+      <c r="H104" s="9"/>
+    </row>
+    <row r="105" spans="2:8" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B105" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E105" s="5"/>
+      <c r="G105" s="8"/>
+      <c r="H105" s="9"/>
+    </row>
+    <row r="106" spans="2:8" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B106" s="11"/>
+      <c r="D106" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E106" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G106" s="8"/>
+      <c r="H106" s="9"/>
+    </row>
+    <row r="107" spans="2:8" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B107" s="11"/>
+      <c r="D107" s="8"/>
+      <c r="E107" s="9"/>
+      <c r="G107" s="8"/>
+      <c r="H107" s="9"/>
+    </row>
+    <row r="108" spans="2:8" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B108" s="11"/>
+      <c r="D108" s="8"/>
+      <c r="E108" s="9"/>
+      <c r="G108" s="8"/>
+      <c r="H108" s="9"/>
+    </row>
+    <row r="109" spans="2:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B109" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C100" s="11"/>
-      <c r="D100" s="10" t="s">
+      <c r="C109" s="11"/>
+      <c r="D109" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E100" s="10"/>
-      <c r="F100" s="11"/>
-      <c r="G100" s="10" t="s">
+      <c r="E109" s="10"/>
+      <c r="F109" s="11"/>
+      <c r="G109" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="2:8" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="10" t="s">
+    <row r="110" spans="2:8" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B110" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C101" s="11"/>
-      <c r="D101" s="10" t="s">
+      <c r="C110" s="11"/>
+      <c r="D110" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E101" s="12"/>
-      <c r="F101" s="11"/>
-      <c r="G101" s="10" t="s">
+      <c r="E110" s="12"/>
+      <c r="F110" s="11"/>
+      <c r="G110" s="10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B102" s="24" t="s">
+    <row r="111" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B111" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="D102" s="59" t="s">
+      <c r="D111" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="E102" s="59"/>
-      <c r="G102" s="53" t="s">
+      <c r="E111" s="43"/>
+      <c r="G111" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="H102" s="54"/>
-    </row>
-    <row r="103" spans="2:8" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="14"/>
-    </row>
-    <row r="104" spans="2:8" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="28" t="s">
+      <c r="H111" s="38"/>
+    </row>
+    <row r="112" spans="2:8" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B112" s="14"/>
+    </row>
+    <row r="113" spans="2:8" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B113" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C104" s="4"/>
-      <c r="D104" s="39" t="s">
+      <c r="C113" s="4"/>
+      <c r="D113" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="E104" s="39"/>
-      <c r="G104" s="40" t="s">
+      <c r="E113" s="54"/>
+      <c r="G113" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="H104" s="41"/>
-    </row>
-    <row r="105" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="1" t="s">
+      <c r="H113" s="56"/>
+    </row>
+    <row r="114" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B114" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D105" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E105" s="17"/>
-      <c r="G105" s="5" t="s">
+      <c r="D114" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E114" s="17"/>
+      <c r="G114" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H105" s="6" t="s">
+      <c r="H114" s="6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="106" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B106" s="1" t="s">
+    <row r="115" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B115" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D106" s="5" t="s">
+      <c r="D115" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E106" s="17" t="s">
+      <c r="E115" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="G106" s="5" t="s">
+      <c r="G115" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H106" s="6" t="s">
+      <c r="H115" s="6" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="107" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="1" t="s">
+    <row r="116" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B116" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D107" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E107" s="17"/>
-      <c r="G107" s="5" t="s">
+      <c r="D116" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E116" s="17"/>
+      <c r="G116" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H107" s="6" t="s">
+      <c r="H116" s="6" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="108" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="1" t="s">
+    <row r="117" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B117" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D108" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E108" s="17"/>
-      <c r="G108" s="5" t="s">
+      <c r="D117" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E117" s="17"/>
+      <c r="G117" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H108" s="6" t="s">
+      <c r="H117" s="6" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="109" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B109" s="1" t="s">
+    <row r="118" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B118" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="D109" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E109" s="17"/>
-      <c r="G109" s="8"/>
-    </row>
-    <row r="110" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B110" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D110" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E110" s="17"/>
-      <c r="G110" s="8"/>
-    </row>
-    <row r="111" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B111" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D111" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E111" s="17"/>
-      <c r="G111" s="8"/>
-    </row>
-    <row r="112" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D112" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E112" s="17"/>
-      <c r="G112" s="8"/>
-    </row>
-    <row r="113" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B113" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D113" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E113" s="17"/>
-      <c r="G113" s="8"/>
-    </row>
-    <row r="114" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B114" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D114" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E114" s="17"/>
-      <c r="G114" s="8"/>
-    </row>
-    <row r="115" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B115" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D115" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E115" s="17"/>
-      <c r="G115" s="8"/>
-    </row>
-    <row r="116" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B116" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D116" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E116" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="G116" s="8"/>
-    </row>
-    <row r="117" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B117" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D117" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E117" s="17"/>
-      <c r="G117" s="8"/>
-    </row>
-    <row r="118" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B118" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="D118" s="5" t="s">
         <v>67</v>
@@ -2562,9 +2524,9 @@
       <c r="E118" s="17"/>
       <c r="G118" s="8"/>
     </row>
-    <row r="119" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B119" s="1" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="D119" s="5" t="s">
         <v>67</v>
@@ -2572,9 +2534,9 @@
       <c r="E119" s="17"/>
       <c r="G119" s="8"/>
     </row>
-    <row r="120" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B120" s="1" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="D120" s="5" t="s">
         <v>67</v>
@@ -2582,9 +2544,9 @@
       <c r="E120" s="17"/>
       <c r="G120" s="8"/>
     </row>
-    <row r="121" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B121" s="1" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="D121" s="5" t="s">
         <v>67</v>
@@ -2592,9 +2554,9 @@
       <c r="E121" s="17"/>
       <c r="G121" s="8"/>
     </row>
-    <row r="122" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B122" s="1" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="D122" s="5" t="s">
         <v>67</v>
@@ -2602,21 +2564,19 @@
       <c r="E122" s="17"/>
       <c r="G122" s="8"/>
     </row>
-    <row r="123" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B123" s="1" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E123" s="17" t="s">
-        <v>119</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="E123" s="17"/>
       <c r="G123" s="8"/>
     </row>
-    <row r="124" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B124" s="1" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="D124" s="5" t="s">
         <v>67</v>
@@ -2624,514 +2584,512 @@
       <c r="E124" s="17"/>
       <c r="G124" s="8"/>
     </row>
-    <row r="125" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B125" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D125" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E125" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="G125" s="8"/>
+    </row>
+    <row r="126" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B126" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D126" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E126" s="17"/>
+      <c r="G126" s="8"/>
+    </row>
+    <row r="127" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B127" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D127" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E127" s="17"/>
+      <c r="G127" s="8"/>
+    </row>
+    <row r="128" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B128" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D128" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E128" s="17"/>
+      <c r="G128" s="8"/>
+    </row>
+    <row r="129" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B129" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D129" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E129" s="17"/>
+      <c r="G129" s="8"/>
+    </row>
+    <row r="130" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B130" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D130" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E130" s="17"/>
+      <c r="G130" s="8"/>
+    </row>
+    <row r="131" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B131" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D131" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E131" s="17"/>
+      <c r="G131" s="8"/>
+    </row>
+    <row r="132" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B132" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D132" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E132" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="G132" s="8"/>
+    </row>
+    <row r="133" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B133" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D133" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E133" s="17"/>
+      <c r="G133" s="8"/>
+    </row>
+    <row r="134" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B134" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D125" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E125" s="17"/>
-      <c r="G125" s="8"/>
-    </row>
-    <row r="126" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B126" s="13"/>
-      <c r="D126" s="5" t="s">
+      <c r="D134" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E134" s="17"/>
+      <c r="G134" s="8"/>
+    </row>
+    <row r="135" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B135" s="13"/>
+      <c r="D135" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="E126" s="5" t="s">
+      <c r="E135" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G126" s="8"/>
-    </row>
-    <row r="127" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B127" s="13"/>
-      <c r="D127" s="8"/>
-      <c r="G127" s="8"/>
-    </row>
-    <row r="128" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B128" s="13"/>
-      <c r="D128" s="8"/>
-      <c r="G128" s="8"/>
-    </row>
-    <row r="129" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B129" s="13"/>
-      <c r="D129" s="8"/>
-      <c r="G129" s="8"/>
-    </row>
-    <row r="130" spans="2:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B130" s="10" t="s">
+      <c r="G135" s="8"/>
+    </row>
+    <row r="136" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B136" s="13"/>
+      <c r="D136" s="8"/>
+      <c r="G136" s="8"/>
+    </row>
+    <row r="137" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B137" s="13"/>
+      <c r="D137" s="8"/>
+      <c r="G137" s="8"/>
+    </row>
+    <row r="138" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B138" s="13"/>
+      <c r="D138" s="8"/>
+      <c r="G138" s="8"/>
+    </row>
+    <row r="139" spans="2:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B139" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C130" s="11"/>
-      <c r="D130" s="10" t="s">
+      <c r="C139" s="11"/>
+      <c r="D139" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E130" s="10"/>
-      <c r="F130" s="11"/>
-      <c r="G130" s="10" t="s">
+      <c r="E139" s="10"/>
+      <c r="F139" s="11"/>
+      <c r="G139" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="2:8" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B131" s="10" t="s">
+    <row r="140" spans="2:8" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B140" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C131" s="11"/>
-      <c r="D131" s="10" t="s">
+      <c r="C140" s="11"/>
+      <c r="D140" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E131" s="12"/>
-      <c r="F131" s="11"/>
-      <c r="G131" s="10" t="s">
+      <c r="E140" s="12"/>
+      <c r="F140" s="11"/>
+      <c r="G140" s="10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="132" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B132" s="48" t="s">
+    <row r="141" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B141" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="D132" s="44" t="s">
+      <c r="D141" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="E132" s="45"/>
-      <c r="G132" s="34" t="s">
+      <c r="E141" s="60"/>
+      <c r="G141" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="H132" s="35"/>
-    </row>
-    <row r="133" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B133" s="48"/>
-      <c r="D133" s="46"/>
-      <c r="E133" s="47"/>
-    </row>
-    <row r="134" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B134" s="13"/>
-      <c r="D134" s="8"/>
-      <c r="E134" s="8"/>
-      <c r="G134" s="8"/>
-    </row>
-    <row r="135" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B135" s="30" t="s">
+      <c r="H141" s="50"/>
+    </row>
+    <row r="142" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B142" s="32"/>
+      <c r="D142" s="61"/>
+      <c r="E142" s="62"/>
+    </row>
+    <row r="143" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B143" s="13"/>
+      <c r="D143" s="8"/>
+      <c r="E143" s="8"/>
+      <c r="G143" s="8"/>
+    </row>
+    <row r="144" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B144" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="D135" s="42" t="s">
+      <c r="D144" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="E135" s="42"/>
-      <c r="G135" s="29" t="s">
+      <c r="E144" s="57"/>
+      <c r="G144" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="H135" s="22"/>
-    </row>
-    <row r="136" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B136" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D136" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E136" s="19"/>
-      <c r="G136" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="H136" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="137" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B137" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D137" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E137" s="19"/>
-      <c r="G137" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="H137" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="138" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B138" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D138" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="E138" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="G138" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="H138" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="139" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B139" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D139" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="E139" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="G139" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="H139" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="140" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B140" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D140" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E140" s="20"/>
-      <c r="G140" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="H140" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="141" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B141" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D141" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E141" s="20"/>
-      <c r="G141" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="H141" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="142" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B142" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D142" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E142" s="20"/>
-      <c r="G142" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="H142" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="143" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B143" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D143" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E143" s="20"/>
-      <c r="G143" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="H143" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="144" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B144" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D144" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E144" s="20"/>
-      <c r="G144" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="H144" s="1" t="s">
-        <v>129</v>
-      </c>
+      <c r="H144" s="22"/>
     </row>
     <row r="145" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B145" s="1" t="s">
-        <v>138</v>
+        <v>39</v>
       </c>
       <c r="D145" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E145" s="20"/>
+      <c r="E145" s="19"/>
+      <c r="G145" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="H145" s="3" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="146" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B146" s="1" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="D146" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E146" s="20"/>
+      <c r="E146" s="19"/>
+      <c r="G146" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="H146" s="1" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="147" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B147" s="1" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="D147" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E147" s="20"/>
-      <c r="G147" s="18"/>
+        <v>141</v>
+      </c>
+      <c r="E147" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="G147" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="H147" s="1" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="148" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B148" s="13"/>
+      <c r="B148" s="1" t="s">
+        <v>132</v>
+      </c>
       <c r="D148" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="E148" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G148" s="18"/>
+        <v>141</v>
+      </c>
+      <c r="E148" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="G148" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="H148" s="1" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="149" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B149" s="13"/>
-      <c r="D149" s="8"/>
-      <c r="E149" s="8"/>
-      <c r="G149" s="18"/>
+      <c r="B149" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D149" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E149" s="20"/>
+      <c r="G149" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="H149" s="1" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="150" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B150" s="13"/>
-      <c r="D150" s="8"/>
-      <c r="E150" s="8"/>
-      <c r="G150" s="18"/>
-    </row>
-    <row r="151" spans="2:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B151" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C151" s="11"/>
-      <c r="D151" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E151" s="10"/>
-      <c r="F151" s="11"/>
-      <c r="G151" s="10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="152" spans="2:8" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B152" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C152" s="11"/>
-      <c r="D152" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E152" s="12"/>
-      <c r="F152" s="11"/>
-      <c r="G152" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="153" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B153" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D153" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="E153" s="60"/>
-      <c r="G153" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="H153" s="50"/>
+      <c r="B150" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D150" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E150" s="20"/>
+      <c r="G150" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="H150" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="151" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B151" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D151" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E151" s="20"/>
+      <c r="G151" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="H151" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="152" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B152" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D152" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E152" s="20"/>
+      <c r="G152" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="H152" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="153" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B153" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D153" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E153" s="20"/>
+      <c r="G153" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="H153" s="1" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="154" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B154" s="13"/>
-      <c r="D154" s="8"/>
-      <c r="E154" s="8"/>
-      <c r="G154" s="8"/>
+      <c r="B154" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D154" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E154" s="20"/>
     </row>
     <row r="155" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B155" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="D155" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="E155" s="43"/>
-      <c r="G155" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="H155" s="33"/>
+      <c r="B155" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D155" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E155" s="20"/>
     </row>
     <row r="156" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B156" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D156" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E156" s="20"/>
+      <c r="G156" s="18"/>
+    </row>
+    <row r="157" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B157" s="13"/>
+      <c r="D157" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E157" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G157" s="18"/>
+    </row>
+    <row r="158" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B158" s="13"/>
+      <c r="D158" s="8"/>
+      <c r="E158" s="8"/>
+      <c r="G158" s="18"/>
+    </row>
+    <row r="159" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B159" s="13"/>
+      <c r="D159" s="8"/>
+      <c r="E159" s="8"/>
+      <c r="G159" s="18"/>
+    </row>
+    <row r="160" spans="2:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B160" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C160" s="11"/>
+      <c r="D160" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E160" s="10"/>
+      <c r="F160" s="11"/>
+      <c r="G160" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="161" spans="2:8" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B161" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C161" s="11"/>
+      <c r="D161" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E161" s="12"/>
+      <c r="F161" s="11"/>
+      <c r="G161" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="162" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B162" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D162" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="E162" s="44"/>
+      <c r="G162" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="H162" s="34"/>
+    </row>
+    <row r="163" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B163" s="13"/>
+      <c r="D163" s="8"/>
+      <c r="E163" s="8"/>
+      <c r="G163" s="8"/>
+    </row>
+    <row r="164" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B164" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="D164" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="E164" s="58"/>
+      <c r="G164" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="H164" s="48"/>
+    </row>
+    <row r="165" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B165" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D156" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E156" s="5"/>
-      <c r="G156" s="6" t="s">
+      <c r="D165" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E165" s="5"/>
+      <c r="G165" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H156" s="6" t="s">
+      <c r="H165" s="6" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="157" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B157" s="1" t="s">
+    <row r="166" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B166" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D157" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E157" s="5"/>
-      <c r="G157" s="6" t="s">
+      <c r="D166" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E166" s="5"/>
+      <c r="G166" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H157" s="6" t="s">
+      <c r="H166" s="6" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="158" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B158" s="1" t="s">
+    <row r="167" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B167" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D158" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E158" s="5"/>
-      <c r="G158" s="6" t="s">
+      <c r="D167" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E167" s="5"/>
+      <c r="G167" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="H158" s="6" t="s">
+      <c r="H167" s="6" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="159" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B159" s="1" t="s">
+    <row r="168" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B168" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D159" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E159" s="5"/>
-      <c r="G159" s="6" t="s">
+      <c r="D168" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E168" s="5"/>
+      <c r="G168" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H159" s="6" t="s">
+      <c r="H168" s="6" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="160" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B160" s="1" t="s">
+    <row r="169" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B169" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="D160" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E160" s="5"/>
-      <c r="G160" s="9"/>
-    </row>
-    <row r="161" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B161" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D161" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E161" s="5"/>
-      <c r="G161" s="9"/>
-    </row>
-    <row r="162" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B162" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D162" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E162" s="5"/>
-      <c r="G162" s="9"/>
-    </row>
-    <row r="163" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B163" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D163" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E163" s="5"/>
-      <c r="G163" s="9"/>
-    </row>
-    <row r="164" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B164" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D164" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E164" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="G164" s="9"/>
-    </row>
-    <row r="165" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B165" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D165" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E165" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="G165" s="9"/>
-    </row>
-    <row r="166" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B166" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D166" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E166" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="G166" s="9"/>
-    </row>
-    <row r="167" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B167" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D167" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E167" s="5"/>
-      <c r="G167" s="9"/>
-    </row>
-    <row r="168" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B168" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D168" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E168" s="5"/>
-      <c r="G168" s="9"/>
-    </row>
-    <row r="169" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B169" s="1" t="s">
-        <v>159</v>
       </c>
       <c r="D169" s="5" t="s">
         <v>67</v>
@@ -3139,48 +3097,144 @@
       <c r="E169" s="5"/>
       <c r="G169" s="9"/>
     </row>
-    <row r="170" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B170" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D170" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E170" s="5"/>
+      <c r="G170" s="9"/>
+    </row>
+    <row r="171" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B171" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D171" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E171" s="5"/>
+      <c r="G171" s="9"/>
+    </row>
+    <row r="172" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B172" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D172" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E172" s="5"/>
+      <c r="G172" s="9"/>
+    </row>
+    <row r="173" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B173" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D173" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E173" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="G173" s="9"/>
+    </row>
+    <row r="174" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B174" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D174" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E174" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G174" s="9"/>
+    </row>
+    <row r="175" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B175" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D175" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E175" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="G175" s="9"/>
+    </row>
+    <row r="176" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B176" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D176" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E176" s="5"/>
+      <c r="G176" s="9"/>
+    </row>
+    <row r="177" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B177" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D177" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E177" s="5"/>
+      <c r="G177" s="9"/>
+    </row>
+    <row r="178" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B178" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D178" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E178" s="5"/>
+      <c r="G178" s="9"/>
+    </row>
+    <row r="179" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B179" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="D170" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E170" s="1"/>
-    </row>
-    <row r="171" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B171" s="1" t="s">
+      <c r="D179" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E179" s="1"/>
+    </row>
+    <row r="180" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B180" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="D171" s="5" t="s">
+      <c r="D180" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E171" s="1" t="s">
+      <c r="E180" s="1" t="s">
         <v>164</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B132:B133"/>
-    <mergeCell ref="G153:H153"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="G102:H102"/>
+    <mergeCell ref="G164:H164"/>
+    <mergeCell ref="G141:H141"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="D113:E113"/>
+    <mergeCell ref="G113:H113"/>
+    <mergeCell ref="D144:E144"/>
+    <mergeCell ref="D164:E164"/>
+    <mergeCell ref="D141:E142"/>
+    <mergeCell ref="B141:B142"/>
+    <mergeCell ref="G162:H162"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="G111:H111"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D102:E102"/>
-    <mergeCell ref="D153:E153"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="D162:E162"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G155:H155"/>
-    <mergeCell ref="G132:H132"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="D104:E104"/>
-    <mergeCell ref="G104:H104"/>
-    <mergeCell ref="D135:E135"/>
-    <mergeCell ref="D155:E155"/>
-    <mergeCell ref="D132:E133"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="97" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Output/Overview.xlsx
+++ b/Output/Overview.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Nga's Folder\Bootcamp\Week 11 - ETL\Project-2-ETL\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFEA9B05-4BB8-4998-BE36-5F9225918AE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAD63CD6-4400-4DBE-83A0-9E732306B54C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27615" yWindow="1005" windowWidth="21600" windowHeight="11385" xr2:uid="{55436849-F3CB-4537-B02B-FB69A483C639}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{55436849-F3CB-4537-B02B-FB69A483C639}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -348,9 +348,6 @@
     <t xml:space="preserve">Keep </t>
   </si>
   <si>
-    <t>Merge df (country_df)</t>
-  </si>
-  <si>
     <t>as Magnitude</t>
   </si>
   <si>
@@ -539,6 +536,9 @@
   </si>
   <si>
     <t>as Total_Inquries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merge df (country_df) - Insert New Column </t>
   </si>
 </sst>
 </file>
@@ -806,6 +806,54 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -850,54 +898,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1216,16 +1216,17 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:H180"/>
+  <dimension ref="B2:H189"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+      <selection activeCell="J160" sqref="J160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="44" style="2" customWidth="1"/>
-    <col min="4" max="5" width="32.7109375" customWidth="1"/>
+    <col min="4" max="4" width="41.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.7109375" customWidth="1"/>
     <col min="7" max="7" width="46.85546875" customWidth="1"/>
     <col min="8" max="8" width="18.7109375" customWidth="1"/>
   </cols>
@@ -1262,14 +1263,14 @@
       <c r="B4" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="39" t="s">
+      <c r="D4" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="40"/>
-      <c r="G4" s="40" t="s">
+      <c r="E4" s="56"/>
+      <c r="G4" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="40"/>
+      <c r="H4" s="56"/>
     </row>
     <row r="5" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="13"/>
@@ -1281,14 +1282,14 @@
       <c r="B6" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="41" t="s">
+      <c r="D6" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="41"/>
-      <c r="G6" s="45" t="s">
+      <c r="E6" s="57"/>
+      <c r="G6" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="46"/>
+      <c r="H6" s="62"/>
     </row>
     <row r="7" spans="2:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
@@ -1592,7 +1593,7 @@
         <v>69</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G33" s="8"/>
     </row>
@@ -1614,7 +1615,7 @@
         <v>69</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G35" s="8"/>
     </row>
@@ -1636,7 +1637,7 @@
         <v>69</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G37" s="8"/>
     </row>
@@ -1693,7 +1694,7 @@
     <row r="43" spans="2:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B43" s="13"/>
       <c r="D43" s="5" t="s">
-        <v>104</v>
+        <v>167</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>22</v>
@@ -1757,126 +1758,97 @@
     <row r="53" spans="2:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B53" s="13"/>
       <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
       <c r="G53" s="8"/>
     </row>
     <row r="54" spans="2:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="10" t="s">
+      <c r="B54" s="13"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="G54" s="8"/>
+    </row>
+    <row r="55" spans="2:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="13"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="G55" s="8"/>
+    </row>
+    <row r="56" spans="2:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="13"/>
+      <c r="D56" s="8"/>
+      <c r="G56" s="8"/>
+    </row>
+    <row r="57" spans="2:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C54" s="11"/>
-      <c r="D54" s="10" t="s">
+      <c r="C57" s="11"/>
+      <c r="D57" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E54" s="10"/>
-      <c r="F54" s="11"/>
-      <c r="G54" s="10" t="s">
+      <c r="E57" s="10"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="2:8" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="10" t="s">
+    <row r="58" spans="2:8" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C55" s="11"/>
-      <c r="D55" s="10" t="s">
+      <c r="C58" s="11"/>
+      <c r="D58" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E55" s="12"/>
-      <c r="F55" s="11"/>
-      <c r="G55" s="10" t="s">
+      <c r="E58" s="12"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B56" s="25" t="s">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B59" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D56" s="42" t="s">
+      <c r="D59" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="E56" s="42"/>
-      <c r="G56" s="35" t="s">
+      <c r="E59" s="58"/>
+      <c r="G59" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="H56" s="36"/>
-    </row>
-    <row r="57" spans="2:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="13"/>
-      <c r="D57" s="16"/>
-      <c r="E57" s="16"/>
-      <c r="G57" s="8"/>
-    </row>
-    <row r="58" spans="2:8" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="27" t="s">
+      <c r="H59" s="52"/>
+    </row>
+    <row r="60" spans="2:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="13"/>
+      <c r="D60" s="16"/>
+      <c r="E60" s="16"/>
+      <c r="G60" s="8"/>
+    </row>
+    <row r="61" spans="2:8" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C58" s="4"/>
-      <c r="D58" s="51" t="s">
+      <c r="C61" s="4"/>
+      <c r="D61" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="E58" s="51"/>
-      <c r="G58" s="52" t="s">
+      <c r="E61" s="36"/>
+      <c r="G61" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="H58" s="53"/>
-    </row>
-    <row r="59" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E59" s="5"/>
-      <c r="G59" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H59" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="60" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E60" s="5"/>
-      <c r="G60" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H60" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="61" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="E61" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="G61" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H61" s="6" t="s">
-        <v>74</v>
-      </c>
+      <c r="H61" s="38"/>
     </row>
     <row r="62" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B62" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D62" s="5" t="s">
         <v>67</v>
       </c>
       <c r="E62" s="5"/>
       <c r="G62" s="5" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="H62" s="6" t="s">
         <v>73</v>
@@ -1884,70 +1856,84 @@
     </row>
     <row r="63" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D63" s="5" t="s">
         <v>67</v>
       </c>
       <c r="E63" s="5"/>
       <c r="G63" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H63" s="6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="64" spans="2:8" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B64" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E64" s="5"/>
+        <v>102</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="G64" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H64" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E65" s="5"/>
+      <c r="G65" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H65" s="6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="65" spans="2:8" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E65" s="5"/>
-      <c r="G65" s="8"/>
-      <c r="H65" s="9"/>
-    </row>
-    <row r="66" spans="2:8" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B66" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D66" s="5" t="s">
         <v>67</v>
       </c>
       <c r="E66" s="5"/>
-      <c r="G66" s="8"/>
-      <c r="H66" s="9"/>
+      <c r="G66" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H66" s="6" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="67" spans="2:8" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D67" s="5" t="s">
         <v>67</v>
       </c>
       <c r="E67" s="5"/>
-      <c r="G67" s="8"/>
-      <c r="H67" s="9"/>
+      <c r="G67" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H67" s="6" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="68" spans="2:8" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D68" s="5" t="s">
         <v>67</v>
@@ -1958,20 +1944,18 @@
     </row>
     <row r="69" spans="2:8" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="E69" s="5" t="s">
-        <v>105</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="E69" s="5"/>
       <c r="G69" s="8"/>
       <c r="H69" s="9"/>
     </row>
     <row r="70" spans="2:8" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D70" s="5" t="s">
         <v>67</v>
@@ -1982,7 +1966,7 @@
     </row>
     <row r="71" spans="2:8" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D71" s="5" t="s">
         <v>67</v>
@@ -1993,18 +1977,20 @@
     </row>
     <row r="72" spans="2:8" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E72" s="5"/>
+        <v>103</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>104</v>
+      </c>
       <c r="G72" s="8"/>
       <c r="H72" s="9"/>
     </row>
     <row r="73" spans="2:8" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D73" s="5" t="s">
         <v>67</v>
@@ -2015,7 +2001,7 @@
     </row>
     <row r="74" spans="2:8" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D74" s="5" t="s">
         <v>67</v>
@@ -2026,7 +2012,7 @@
     </row>
     <row r="75" spans="2:8" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D75" s="5" t="s">
         <v>67</v>
@@ -2037,7 +2023,7 @@
     </row>
     <row r="76" spans="2:8" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D76" s="5" t="s">
         <v>67</v>
@@ -2048,7 +2034,7 @@
     </row>
     <row r="77" spans="2:8" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D77" s="5" t="s">
         <v>67</v>
@@ -2059,7 +2045,7 @@
     </row>
     <row r="78" spans="2:8" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D78" s="5" t="s">
         <v>67</v>
@@ -2070,7 +2056,7 @@
     </row>
     <row r="79" spans="2:8" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D79" s="5" t="s">
         <v>67</v>
@@ -2081,7 +2067,7 @@
     </row>
     <row r="80" spans="2:8" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D80" s="5" t="s">
         <v>67</v>
@@ -2092,7 +2078,7 @@
     </row>
     <row r="81" spans="2:8" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D81" s="5" t="s">
         <v>67</v>
@@ -2103,7 +2089,7 @@
     </row>
     <row r="82" spans="2:8" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="1" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="D82" s="5" t="s">
         <v>67</v>
@@ -2114,7 +2100,7 @@
     </row>
     <row r="83" spans="2:8" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="1" t="s">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="D83" s="5" t="s">
         <v>67</v>
@@ -2125,7 +2111,7 @@
     </row>
     <row r="84" spans="2:8" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="1" t="s">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="D84" s="5" t="s">
         <v>67</v>
@@ -2136,7 +2122,7 @@
     </row>
     <row r="85" spans="2:8" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D85" s="5" t="s">
         <v>67</v>
@@ -2147,7 +2133,7 @@
     </row>
     <row r="86" spans="2:8" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D86" s="5" t="s">
         <v>67</v>
@@ -2158,7 +2144,7 @@
     </row>
     <row r="87" spans="2:8" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D87" s="5" t="s">
         <v>67</v>
@@ -2169,7 +2155,7 @@
     </row>
     <row r="88" spans="2:8" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D88" s="5" t="s">
         <v>67</v>
@@ -2180,7 +2166,7 @@
     </row>
     <row r="89" spans="2:8" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D89" s="5" t="s">
         <v>67</v>
@@ -2191,7 +2177,7 @@
     </row>
     <row r="90" spans="2:8" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D90" s="5" t="s">
         <v>67</v>
@@ -2202,7 +2188,7 @@
     </row>
     <row r="91" spans="2:8" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D91" s="5" t="s">
         <v>67</v>
@@ -2213,7 +2199,7 @@
     </row>
     <row r="92" spans="2:8" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="1" t="s">
-        <v>98</v>
+        <v>54</v>
       </c>
       <c r="D92" s="5" t="s">
         <v>67</v>
@@ -2224,7 +2210,7 @@
     </row>
     <row r="93" spans="2:8" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="1" t="s">
-        <v>99</v>
+        <v>55</v>
       </c>
       <c r="D93" s="5" t="s">
         <v>67</v>
@@ -2235,20 +2221,18 @@
     </row>
     <row r="94" spans="2:8" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="E94" s="5" t="s">
-        <v>24</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="E94" s="5"/>
       <c r="G94" s="8"/>
       <c r="H94" s="9"/>
     </row>
     <row r="95" spans="2:8" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="1" t="s">
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="D95" s="5" t="s">
         <v>67</v>
@@ -2259,10 +2243,10 @@
     </row>
     <row r="96" spans="2:8" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="1" t="s">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E96" s="5"/>
       <c r="G96" s="8"/>
@@ -2270,34 +2254,34 @@
     </row>
     <row r="97" spans="2:8" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E97" s="5"/>
+        <v>103</v>
+      </c>
+      <c r="E97" s="5" t="s">
+        <v>118</v>
+      </c>
       <c r="G97" s="8"/>
       <c r="H97" s="9"/>
     </row>
     <row r="98" spans="2:8" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E98" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="E98" s="5"/>
       <c r="G98" s="8"/>
       <c r="H98" s="9"/>
     </row>
     <row r="99" spans="2:8" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E99" s="5"/>
       <c r="G99" s="8"/>
@@ -2305,7 +2289,7 @@
     </row>
     <row r="100" spans="2:8" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D100" s="5" t="s">
         <v>67</v>
@@ -2316,18 +2300,20 @@
     </row>
     <row r="101" spans="2:8" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E101" s="5"/>
+        <v>69</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>165</v>
+      </c>
       <c r="G101" s="8"/>
       <c r="H101" s="9"/>
     </row>
     <row r="102" spans="2:8" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D102" s="5" t="s">
         <v>67</v>
@@ -2338,7 +2324,7 @@
     </row>
     <row r="103" spans="2:8" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D103" s="5" t="s">
         <v>67</v>
@@ -2349,7 +2335,7 @@
     </row>
     <row r="104" spans="2:8" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="1" t="s">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="D104" s="5" t="s">
         <v>67</v>
@@ -2360,7 +2346,7 @@
     </row>
     <row r="105" spans="2:8" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="1" t="s">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c r="D105" s="5" t="s">
         <v>67</v>
@@ -2370,203 +2356,200 @@
       <c r="H105" s="9"/>
     </row>
     <row r="106" spans="2:8" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B106" s="11"/>
+      <c r="B106" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="D106" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="E106" s="5" t="s">
-        <v>22</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="E106" s="5"/>
       <c r="G106" s="8"/>
       <c r="H106" s="9"/>
     </row>
     <row r="107" spans="2:8" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="11"/>
-      <c r="D107" s="8"/>
-      <c r="E107" s="9"/>
+      <c r="B107" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E107" s="5"/>
       <c r="G107" s="8"/>
       <c r="H107" s="9"/>
     </row>
     <row r="108" spans="2:8" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="11"/>
-      <c r="D108" s="8"/>
-      <c r="E108" s="9"/>
+      <c r="B108" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E108" s="5"/>
       <c r="G108" s="8"/>
       <c r="H108" s="9"/>
     </row>
-    <row r="109" spans="2:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B109" s="10" t="s">
+    <row r="109" spans="2:8" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B109" s="11"/>
+      <c r="D109" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="E109" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G109" s="8"/>
+      <c r="H109" s="9"/>
+    </row>
+    <row r="110" spans="2:8" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B110" s="11"/>
+      <c r="D110" s="8"/>
+      <c r="E110" s="9"/>
+      <c r="G110" s="8"/>
+      <c r="H110" s="9"/>
+    </row>
+    <row r="111" spans="2:8" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B111" s="11"/>
+      <c r="D111" s="8"/>
+      <c r="E111" s="9"/>
+      <c r="G111" s="8"/>
+      <c r="H111" s="9"/>
+    </row>
+    <row r="112" spans="2:8" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B112" s="11"/>
+      <c r="D112" s="8"/>
+      <c r="E112" s="9"/>
+      <c r="G112" s="8"/>
+      <c r="H112" s="9"/>
+    </row>
+    <row r="113" spans="2:8" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B113" s="11"/>
+      <c r="D113" s="8"/>
+      <c r="E113" s="9"/>
+      <c r="G113" s="8"/>
+      <c r="H113" s="9"/>
+    </row>
+    <row r="114" spans="2:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B114" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C109" s="11"/>
-      <c r="D109" s="10" t="s">
+      <c r="C114" s="11"/>
+      <c r="D114" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E109" s="10"/>
-      <c r="F109" s="11"/>
-      <c r="G109" s="10" t="s">
+      <c r="E114" s="10"/>
+      <c r="F114" s="11"/>
+      <c r="G114" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="2:8" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B110" s="10" t="s">
+    <row r="115" spans="2:8" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B115" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C110" s="11"/>
-      <c r="D110" s="10" t="s">
+      <c r="C115" s="11"/>
+      <c r="D115" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E110" s="12"/>
-      <c r="F110" s="11"/>
-      <c r="G110" s="10" t="s">
+      <c r="E115" s="12"/>
+      <c r="F115" s="11"/>
+      <c r="G115" s="10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="111" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B111" s="24" t="s">
+    <row r="116" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B116" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="D111" s="43" t="s">
+      <c r="D116" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="E111" s="43"/>
-      <c r="G111" s="37" t="s">
+      <c r="E116" s="59"/>
+      <c r="G116" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="H111" s="38"/>
-    </row>
-    <row r="112" spans="2:8" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="14"/>
-    </row>
-    <row r="113" spans="2:8" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B113" s="28" t="s">
+      <c r="H116" s="54"/>
+    </row>
+    <row r="117" spans="2:8" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B117" s="14"/>
+    </row>
+    <row r="118" spans="2:8" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B118" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C113" s="4"/>
-      <c r="D113" s="54" t="s">
+      <c r="C118" s="4"/>
+      <c r="D118" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="E113" s="54"/>
-      <c r="G113" s="55" t="s">
+      <c r="E118" s="39"/>
+      <c r="G118" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="H113" s="56"/>
-    </row>
-    <row r="114" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B114" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D114" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E114" s="17"/>
-      <c r="G114" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H114" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="115" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B115" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D115" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E115" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="G115" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H115" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="116" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B116" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D116" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E116" s="17"/>
-      <c r="G116" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H116" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="117" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B117" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D117" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E117" s="17"/>
-      <c r="G117" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H117" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="118" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B118" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D118" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E118" s="17"/>
-      <c r="G118" s="8"/>
+      <c r="H118" s="41"/>
     </row>
     <row r="119" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B119" s="1" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="D119" s="5" t="s">
         <v>67</v>
       </c>
       <c r="E119" s="17"/>
-      <c r="G119" s="8"/>
+      <c r="G119" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H119" s="6" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="120" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B120" s="1" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E120" s="17"/>
-      <c r="G120" s="8"/>
+        <v>69</v>
+      </c>
+      <c r="E120" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="G120" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H120" s="6" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="121" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B121" s="1" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="D121" s="5" t="s">
         <v>67</v>
       </c>
       <c r="E121" s="17"/>
-      <c r="G121" s="8"/>
+      <c r="G121" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H121" s="6" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="122" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B122" s="1" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="D122" s="5" t="s">
         <v>67</v>
       </c>
       <c r="E122" s="17"/>
-      <c r="G122" s="8"/>
+      <c r="G122" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H122" s="6" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="123" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B123" s="1" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="D123" s="5" t="s">
         <v>67</v>
@@ -2576,7 +2559,7 @@
     </row>
     <row r="124" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B124" s="1" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="D124" s="5" t="s">
         <v>67</v>
@@ -2586,19 +2569,17 @@
     </row>
     <row r="125" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B125" s="1" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E125" s="17" t="s">
-        <v>118</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="E125" s="17"/>
       <c r="G125" s="8"/>
     </row>
     <row r="126" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B126" s="1" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="D126" s="5" t="s">
         <v>67</v>
@@ -2608,7 +2589,7 @@
     </row>
     <row r="127" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B127" s="1" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="D127" s="5" t="s">
         <v>67</v>
@@ -2618,7 +2599,7 @@
     </row>
     <row r="128" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B128" s="1" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="D128" s="5" t="s">
         <v>67</v>
@@ -2626,9 +2607,9 @@
       <c r="E128" s="17"/>
       <c r="G128" s="8"/>
     </row>
-    <row r="129" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B129" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D129" s="5" t="s">
         <v>67</v>
@@ -2636,19 +2617,21 @@
       <c r="E129" s="17"/>
       <c r="G129" s="8"/>
     </row>
-    <row r="130" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B130" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E130" s="17"/>
+        <v>69</v>
+      </c>
+      <c r="E130" s="17" t="s">
+        <v>117</v>
+      </c>
       <c r="G130" s="8"/>
     </row>
-    <row r="131" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B131" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D131" s="5" t="s">
         <v>67</v>
@@ -2656,21 +2639,19 @@
       <c r="E131" s="17"/>
       <c r="G131" s="8"/>
     </row>
-    <row r="132" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B132" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E132" s="17" t="s">
-        <v>119</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="E132" s="17"/>
       <c r="G132" s="8"/>
     </row>
-    <row r="133" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B133" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D133" s="5" t="s">
         <v>67</v>
@@ -2678,9 +2659,9 @@
       <c r="E133" s="17"/>
       <c r="G133" s="8"/>
     </row>
-    <row r="134" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B134" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D134" s="5" t="s">
         <v>67</v>
@@ -2688,504 +2669,485 @@
       <c r="E134" s="17"/>
       <c r="G134" s="8"/>
     </row>
-    <row r="135" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B135" s="13"/>
+    <row r="135" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B135" s="1" t="s">
+        <v>112</v>
+      </c>
       <c r="D135" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="E135" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E135" s="17"/>
+      <c r="G135" s="8"/>
+    </row>
+    <row r="136" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B136" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D136" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E136" s="17"/>
+      <c r="G136" s="8"/>
+    </row>
+    <row r="137" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B137" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D137" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E137" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="G137" s="8"/>
+    </row>
+    <row r="138" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B138" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D138" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E138" s="17"/>
+      <c r="G138" s="8"/>
+    </row>
+    <row r="139" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B139" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D139" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E139" s="17"/>
+      <c r="G139" s="8"/>
+    </row>
+    <row r="140" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B140" s="13"/>
+      <c r="D140" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="E140" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G135" s="8"/>
-    </row>
-    <row r="136" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B136" s="13"/>
-      <c r="D136" s="8"/>
-      <c r="G136" s="8"/>
-    </row>
-    <row r="137" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B137" s="13"/>
-      <c r="D137" s="8"/>
-      <c r="G137" s="8"/>
-    </row>
-    <row r="138" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B138" s="13"/>
-      <c r="D138" s="8"/>
-      <c r="G138" s="8"/>
-    </row>
-    <row r="139" spans="2:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B139" s="10" t="s">
+      <c r="G140" s="8"/>
+    </row>
+    <row r="141" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B141" s="13"/>
+      <c r="D141" s="8"/>
+      <c r="G141" s="8"/>
+    </row>
+    <row r="142" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B142" s="13"/>
+      <c r="D142" s="8"/>
+      <c r="G142" s="8"/>
+    </row>
+    <row r="143" spans="2:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B143" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C139" s="11"/>
-      <c r="D139" s="10" t="s">
+      <c r="C143" s="11"/>
+      <c r="D143" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E139" s="10"/>
-      <c r="F139" s="11"/>
-      <c r="G139" s="10" t="s">
+      <c r="E143" s="10"/>
+      <c r="F143" s="11"/>
+      <c r="G143" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="140" spans="2:8" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B140" s="10" t="s">
+    <row r="144" spans="2:7" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B144" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C140" s="11"/>
-      <c r="D140" s="10" t="s">
+      <c r="C144" s="11"/>
+      <c r="D144" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E140" s="12"/>
-      <c r="F140" s="11"/>
-      <c r="G140" s="10" t="s">
+      <c r="E144" s="12"/>
+      <c r="F144" s="11"/>
+      <c r="G144" s="10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="141" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B141" s="32" t="s">
-        <v>144</v>
-      </c>
-      <c r="D141" s="59" t="s">
-        <v>120</v>
-      </c>
-      <c r="E141" s="60"/>
-      <c r="G141" s="49" t="s">
+    <row r="145" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B145" s="48" t="s">
+        <v>143</v>
+      </c>
+      <c r="D145" s="44" t="s">
+        <v>119</v>
+      </c>
+      <c r="E145" s="45"/>
+      <c r="G145" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="H141" s="50"/>
-    </row>
-    <row r="142" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B142" s="32"/>
-      <c r="D142" s="61"/>
-      <c r="E142" s="62"/>
-    </row>
-    <row r="143" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B143" s="13"/>
-      <c r="D143" s="8"/>
-      <c r="E143" s="8"/>
-      <c r="G143" s="8"/>
-    </row>
-    <row r="144" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B144" s="30" t="s">
+      <c r="H145" s="35"/>
+    </row>
+    <row r="146" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B146" s="48"/>
+      <c r="D146" s="46"/>
+      <c r="E146" s="47"/>
+    </row>
+    <row r="147" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B147" s="13"/>
+      <c r="D147" s="8"/>
+      <c r="E147" s="8"/>
+      <c r="G147" s="8"/>
+    </row>
+    <row r="148" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B148" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="D144" s="57" t="s">
+      <c r="D148" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="E144" s="57"/>
-      <c r="G144" s="29" t="s">
+      <c r="E148" s="42"/>
+      <c r="G148" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="H144" s="22"/>
-    </row>
-    <row r="145" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B145" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D145" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E145" s="19"/>
-      <c r="G145" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="H145" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="146" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B146" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D146" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E146" s="19"/>
-      <c r="G146" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="H146" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="147" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B147" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D147" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="E147" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="G147" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="H147" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="148" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B148" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D148" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="E148" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="G148" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="H148" s="1" t="s">
-        <v>129</v>
-      </c>
+      <c r="H148" s="22"/>
     </row>
     <row r="149" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B149" s="1" t="s">
-        <v>133</v>
+        <v>39</v>
       </c>
       <c r="D149" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E149" s="20"/>
+      <c r="E149" s="19"/>
       <c r="G149" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="H149" s="1" t="s">
-        <v>129</v>
+        <v>22</v>
+      </c>
+      <c r="H149" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="150" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B150" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D150" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E150" s="20"/>
+      <c r="E150" s="19"/>
       <c r="G150" s="19" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="H150" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="151" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B151" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D151" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E151" s="20"/>
+        <v>140</v>
+      </c>
+      <c r="E151" s="21" t="s">
+        <v>141</v>
+      </c>
       <c r="G151" s="19" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="H151" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="152" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B152" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D152" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E152" s="20"/>
+        <v>140</v>
+      </c>
+      <c r="E152" s="21" t="s">
+        <v>142</v>
+      </c>
       <c r="G152" s="19" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="H152" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="153" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B153" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D153" s="5" t="s">
         <v>67</v>
       </c>
       <c r="E153" s="20"/>
       <c r="G153" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="H153" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="H153" s="1" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="154" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B154" s="1" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D154" s="5" t="s">
         <v>67</v>
       </c>
       <c r="E154" s="20"/>
+      <c r="G154" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="H154" s="1" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="155" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B155" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D155" s="5" t="s">
         <v>67</v>
       </c>
       <c r="E155" s="20"/>
+      <c r="G155" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="H155" s="1" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="156" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B156" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D156" s="5" t="s">
         <v>67</v>
       </c>
       <c r="E156" s="20"/>
-      <c r="G156" s="18"/>
+      <c r="G156" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="H156" s="1" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="157" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B157" s="13"/>
+      <c r="B157" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="D157" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="E157" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E157" s="20"/>
+      <c r="G157" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="H157" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="158" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B158" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D158" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E158" s="20"/>
+    </row>
+    <row r="159" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B159" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D159" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E159" s="20"/>
+    </row>
+    <row r="160" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B160" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D160" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E160" s="20"/>
+      <c r="G160" s="18"/>
+    </row>
+    <row r="161" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B161" s="13"/>
+      <c r="D161" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="E161" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G157" s="18"/>
-    </row>
-    <row r="158" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B158" s="13"/>
-      <c r="D158" s="8"/>
-      <c r="E158" s="8"/>
-      <c r="G158" s="18"/>
-    </row>
-    <row r="159" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B159" s="13"/>
-      <c r="D159" s="8"/>
-      <c r="E159" s="8"/>
-      <c r="G159" s="18"/>
-    </row>
-    <row r="160" spans="2:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B160" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C160" s="11"/>
-      <c r="D160" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E160" s="10"/>
-      <c r="F160" s="11"/>
-      <c r="G160" s="10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="161" spans="2:8" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B161" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C161" s="11"/>
-      <c r="D161" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E161" s="12"/>
-      <c r="F161" s="11"/>
-      <c r="G161" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="162" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B162" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D162" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="E162" s="44"/>
-      <c r="G162" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="H162" s="34"/>
+      <c r="G161" s="18"/>
+    </row>
+    <row r="162" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B162" s="13"/>
+      <c r="D162" s="8"/>
+      <c r="E162" s="8"/>
+      <c r="G162" s="18"/>
     </row>
     <row r="163" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B163" s="13"/>
       <c r="D163" s="8"/>
       <c r="E163" s="8"/>
-      <c r="G163" s="8"/>
+      <c r="G163" s="18"/>
     </row>
     <row r="164" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B164" s="31" t="s">
+      <c r="B164" s="13"/>
+      <c r="D164" s="8"/>
+      <c r="E164" s="8"/>
+      <c r="G164" s="18"/>
+    </row>
+    <row r="165" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B165" s="13"/>
+      <c r="D165" s="8"/>
+      <c r="E165" s="8"/>
+      <c r="G165" s="18"/>
+    </row>
+    <row r="166" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B166" s="13"/>
+      <c r="D166" s="8"/>
+      <c r="E166" s="8"/>
+      <c r="G166" s="18"/>
+    </row>
+    <row r="167" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B167" s="13"/>
+      <c r="D167" s="8"/>
+      <c r="E167" s="8"/>
+      <c r="G167" s="18"/>
+    </row>
+    <row r="168" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B168" s="13"/>
+      <c r="D168" s="8"/>
+      <c r="E168" s="8"/>
+      <c r="G168" s="18"/>
+    </row>
+    <row r="169" spans="2:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B169" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C169" s="11"/>
+      <c r="D169" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E169" s="10"/>
+      <c r="F169" s="11"/>
+      <c r="G169" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="170" spans="2:8" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B170" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C170" s="11"/>
+      <c r="D170" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E170" s="12"/>
+      <c r="F170" s="11"/>
+      <c r="G170" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="171" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B171" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D171" s="60" t="s">
+        <v>13</v>
+      </c>
+      <c r="E171" s="60"/>
+      <c r="G171" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="H171" s="50"/>
+    </row>
+    <row r="172" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B172" s="13"/>
+      <c r="D172" s="8"/>
+      <c r="E172" s="8"/>
+      <c r="G172" s="8"/>
+    </row>
+    <row r="173" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B173" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="D164" s="58" t="s">
+      <c r="D173" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="E164" s="58"/>
-      <c r="G164" s="47" t="s">
+      <c r="E173" s="43"/>
+      <c r="G173" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="H164" s="48"/>
-    </row>
-    <row r="165" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B165" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D165" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E165" s="5"/>
-      <c r="G165" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H165" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="166" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B166" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D166" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E166" s="5"/>
-      <c r="G166" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H166" s="6" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="167" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B167" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D167" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E167" s="5"/>
-      <c r="G167" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H167" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="168" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B168" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D168" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E168" s="5"/>
-      <c r="G168" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H168" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="169" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B169" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D169" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E169" s="5"/>
-      <c r="G169" s="9"/>
-    </row>
-    <row r="170" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B170" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D170" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E170" s="5"/>
-      <c r="G170" s="9"/>
-    </row>
-    <row r="171" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B171" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D171" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E171" s="5"/>
-      <c r="G171" s="9"/>
-    </row>
-    <row r="172" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B172" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D172" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E172" s="5"/>
-      <c r="G172" s="9"/>
-    </row>
-    <row r="173" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B173" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D173" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E173" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="G173" s="9"/>
+      <c r="H173" s="33"/>
     </row>
     <row r="174" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B174" s="1" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="D174" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E174" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="G174" s="9"/>
+        <v>67</v>
+      </c>
+      <c r="E174" s="5"/>
+      <c r="G174" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H174" s="6" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="175" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B175" s="1" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="D175" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E175" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="G175" s="9"/>
+        <v>67</v>
+      </c>
+      <c r="E175" s="5"/>
+      <c r="G175" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H175" s="6" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="176" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B176" s="1" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="D176" s="5" t="s">
         <v>67</v>
       </c>
       <c r="E176" s="5"/>
-      <c r="G176" s="9"/>
-    </row>
-    <row r="177" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G176" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H176" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="177" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B177" s="1" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="D177" s="5" t="s">
         <v>67</v>
       </c>
       <c r="E177" s="5"/>
-      <c r="G177" s="9"/>
-    </row>
-    <row r="178" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G177" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H177" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="178" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B178" s="1" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="D178" s="5" t="s">
         <v>67</v>
@@ -3193,50 +3155,146 @@
       <c r="E178" s="5"/>
       <c r="G178" s="9"/>
     </row>
-    <row r="179" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B179" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D179" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E179" s="5"/>
+      <c r="G179" s="9"/>
+    </row>
+    <row r="180" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B180" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D180" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E180" s="5"/>
+      <c r="G180" s="9"/>
+    </row>
+    <row r="181" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B181" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D181" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E181" s="5"/>
+      <c r="G181" s="9"/>
+    </row>
+    <row r="182" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B182" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D182" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E182" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="G182" s="9"/>
+    </row>
+    <row r="183" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B183" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D183" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E183" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G183" s="9"/>
+    </row>
+    <row r="184" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B184" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D184" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E184" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="G184" s="9"/>
+    </row>
+    <row r="185" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B185" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D185" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E185" s="5"/>
+      <c r="G185" s="9"/>
+    </row>
+    <row r="186" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B186" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D186" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E186" s="5"/>
+      <c r="G186" s="9"/>
+    </row>
+    <row r="187" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B187" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D187" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E187" s="5"/>
+      <c r="G187" s="9"/>
+    </row>
+    <row r="188" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B188" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D188" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E188" s="1"/>
+    </row>
+    <row r="189" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B189" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="D179" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E179" s="1"/>
-    </row>
-    <row r="180" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B180" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D180" s="5" t="s">
+      <c r="D189" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E180" s="1" t="s">
-        <v>164</v>
+      <c r="E189" s="1" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="G164:H164"/>
-    <mergeCell ref="G141:H141"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="D113:E113"/>
-    <mergeCell ref="G113:H113"/>
-    <mergeCell ref="D144:E144"/>
-    <mergeCell ref="D164:E164"/>
-    <mergeCell ref="D141:E142"/>
-    <mergeCell ref="B141:B142"/>
-    <mergeCell ref="G162:H162"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="G111:H111"/>
+    <mergeCell ref="B145:B146"/>
+    <mergeCell ref="G171:H171"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="G116:H116"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="D162:E162"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="D116:E116"/>
+    <mergeCell ref="D171:E171"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G173:H173"/>
+    <mergeCell ref="G145:H145"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="D118:E118"/>
+    <mergeCell ref="G118:H118"/>
+    <mergeCell ref="D148:E148"/>
+    <mergeCell ref="D173:E173"/>
+    <mergeCell ref="D145:E146"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="8" scale="97" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="93" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>